--- a/biology/Botanique/Faramea_paniculata/Faramea_paniculata.xlsx
+++ b/biology/Botanique/Faramea_paniculata/Faramea_paniculata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea paniculata est une espèce d'arbuste d'Amérique du sud, appartenant à la famille des Rubiaceae.
 </t>
@@ -511,11 +523,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>En 1953, Lemée en propose la description suivante de Faramea paniculata :
 « C. paniculata Standl. (Billardiera p. Vahl.); Arbre subglabre à jeunes rameaux obtusément 4-gônes ; feuilles de 0,15-0,22 sur 0,05-0,11, oblongues-elliptiques caudées-acuminées, à base aiguë, herbacées, ou subcoriaces, avec 8-10 paires de nervures saillantes en dessous et poilues à l'aisselle ; panicules avec bractées ou presque, formées d'ombelles au sommet des ramifications ; fleurs pédicellées, calice campanulé, corolle blanche à tube de 6 mm. et lobes de 5-6, anthères un peu saillantes, style de 10 mm. ; drupe ovoide de 13 mm. sur 10, jaunâtre. - Guy. franç. (Fl. of Surinam). »
-— Albert Lemée, 1953.[4]</t>
+— Albert Lemée, 1953.</t>
         </is>
       </c>
     </row>
@@ -543,7 +557,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea paniculata est présent dans le bassin amazonien et le plateau des Guyanes.
 </t>
@@ -574,7 +590,9 @@
           <t>Ecologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Faramea paniculata est largement méconnue.
 </t>
@@ -605,9 +623,11 @@
           <t>Protologue</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet a premièrement décrit Faramea paniculata sous le nom de Coffea paniculata et en a proposé le protologue suivant[5] : 
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet a premièrement décrit Faramea paniculata sous le nom de Coffea paniculata et en a proposé le protologue suivant : 
 « 1. COFFEA (paniculata) ramis quadrangularibus, foliis amplis, ovato-oblongis, acutis ; coroilis quadrifidis, baccis diſpermis. (Tabula 58.).
 Frutex trunco octo-pedali, ramoſo ; ramis &amp; ramuſculis tetragonis, oppoſitis, nodoſis. Folia ampla, ovato-oblonga, acuta, decidua, utrinque intrà baſim petiolorum. Flores panniculati, terminates. Pediculis oppoſitis, in ſummitate ramoſis ; ramuſculis tri vel quadri &amp; quinquepartitis, ſingulis. Corolla alba, ſuavem odorem exhalans. Bacca ſubcærulea. Semina duo ovata, hinc convexa, indè plana, ſulcata, ſulco longitudinali.
 Florebat, fruclumque ferebat Aprili.
